--- a/data/acoso.xlsx
+++ b/data/acoso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulapereda/25N_2018/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA666C04-14A6-6A41-8A2C-F2FC0E358025}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F35ACEE-DB48-A148-B6CA-F24A65A41BCF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15440" activeTab="5" xr2:uid="{93AF13A7-D54F-7C42-B321-2475973CC1D7}"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15440" xr2:uid="{93AF13A7-D54F-7C42-B321-2475973CC1D7}"/>
   </bookViews>
   <sheets>
     <sheet name="denunciantes" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>Género</t>
   </si>
@@ -59,30 +59,9 @@
     <t>Porcentaje</t>
   </si>
   <si>
-    <t>91,4</t>
-  </si>
-  <si>
-    <t>7,3</t>
-  </si>
-  <si>
-    <t>0,8</t>
-  </si>
-  <si>
-    <t>0,4</t>
-  </si>
-  <si>
-    <t>0,2</t>
-  </si>
-  <si>
     <t>Sin dato</t>
   </si>
   <si>
-    <t>6,1</t>
-  </si>
-  <si>
-    <t>93,1</t>
-  </si>
-  <si>
     <t>De 11 a 18</t>
   </si>
   <si>
@@ -119,39 +98,6 @@
     <t>Madrugada</t>
   </si>
   <si>
-    <t>51,6</t>
-  </si>
-  <si>
-    <t>15,3</t>
-  </si>
-  <si>
-    <t>7,1</t>
-  </si>
-  <si>
-    <t>21,6</t>
-  </si>
-  <si>
-    <t>37,8</t>
-  </si>
-  <si>
-    <t>24,3</t>
-  </si>
-  <si>
-    <t>16,2</t>
-  </si>
-  <si>
-    <t>25,7</t>
-  </si>
-  <si>
-    <t>50,5</t>
-  </si>
-  <si>
-    <t>16,1</t>
-  </si>
-  <si>
-    <t>7,7</t>
-  </si>
-  <si>
     <t>Tipo</t>
   </si>
   <si>
@@ -180,99 +126,6 @@
   </si>
   <si>
     <t>Físico</t>
-  </si>
-  <si>
-    <t>24,0</t>
-  </si>
-  <si>
-    <t>32,2</t>
-  </si>
-  <si>
-    <t>9,9</t>
-  </si>
-  <si>
-    <t>12,4</t>
-  </si>
-  <si>
-    <t>3,3</t>
-  </si>
-  <si>
-    <t>14,0</t>
-  </si>
-  <si>
-    <t>2,5</t>
-  </si>
-  <si>
-    <t>20,8</t>
-  </si>
-  <si>
-    <t>37,9</t>
-  </si>
-  <si>
-    <t>8,8</t>
-  </si>
-  <si>
-    <t>0,0</t>
-  </si>
-  <si>
-    <t>6,7</t>
-  </si>
-  <si>
-    <t>10,0</t>
-  </si>
-  <si>
-    <t>1,7</t>
-  </si>
-  <si>
-    <t>3,8</t>
-  </si>
-  <si>
-    <t>15,5</t>
-  </si>
-  <si>
-    <t>32,4</t>
-  </si>
-  <si>
-    <t>8,5</t>
-  </si>
-  <si>
-    <t>5,6</t>
-  </si>
-  <si>
-    <t>7,0</t>
-  </si>
-  <si>
-    <t>15,2</t>
-  </si>
-  <si>
-    <t>3,0</t>
-  </si>
-  <si>
-    <t>12,1</t>
-  </si>
-  <si>
-    <t>51,5</t>
-  </si>
-  <si>
-    <t>20,4</t>
-  </si>
-  <si>
-    <t>33,1</t>
-  </si>
-  <si>
-    <t>9,2</t>
-  </si>
-  <si>
-    <t>6,9</t>
-  </si>
-  <si>
-    <t>15,7</t>
-  </si>
-  <si>
-    <t>3,9</t>
-  </si>
-  <si>
-    <t>0,6</t>
   </si>
 </sst>
 </file>
@@ -629,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84EE5699-BA85-6D4B-8AD1-5CD44A8CF066}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -658,8 +511,8 @@
       <c r="B2">
         <v>465</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
+      <c r="C2" s="1">
+        <v>91.4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -669,8 +522,8 @@
       <c r="B3">
         <v>37</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
+      <c r="C3" s="1">
+        <v>7.3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -680,8 +533,8 @@
       <c r="B4">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
+      <c r="C4" s="1">
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -691,8 +544,8 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
+      <c r="C5" s="1">
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -702,8 +555,8 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
+      <c r="C6" s="1">
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -750,8 +603,8 @@
       <c r="B2">
         <v>31</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
+      <c r="C2" s="1">
+        <v>6.1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -761,19 +614,19 @@
       <c r="B3">
         <v>474</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
+      <c r="C3" s="1">
+        <v>93.1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
+      <c r="C4" s="1">
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -807,7 +660,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -816,12 +669,12 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>24.9</v>
@@ -835,7 +688,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>47.3</v>
@@ -849,7 +702,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>17.600000000000001</v>
@@ -863,7 +716,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>7.1</v>
@@ -877,7 +730,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -923,7 +776,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -946,7 +799,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>116</v>
@@ -969,7 +822,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>220</v>
@@ -992,7 +845,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>82</v>
@@ -1015,7 +868,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>33</v>
@@ -1038,7 +891,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -1099,7 +952,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1113,58 +966,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>36</v>
+      <c r="C2" s="1">
+        <v>21.6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>25.7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
+      </c>
+      <c r="B3" s="1">
+        <v>51.6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D3" s="1">
+        <v>50.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15.3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>16.2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1190,7 +1043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D01A075-0771-FD43-8066-C7B0C515E419}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -1201,19 +1054,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -1221,182 +1074,182 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>74</v>
+        <v>23</v>
+      </c>
+      <c r="B2" s="1">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>75</v>
+        <v>24</v>
+      </c>
+      <c r="B3" s="1">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="C3" s="1">
+        <v>37.9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>32.4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>33.1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>76</v>
+        <v>25</v>
+      </c>
+      <c r="B4" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>12.1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
+      </c>
+      <c r="B6" s="1">
+        <v>12.4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>12.1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>9.9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>77</v>
+        <v>28</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6.9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>78</v>
+        <v>29</v>
+      </c>
+      <c r="B8" s="1">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>51.5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>15.7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>79</v>
+        <v>30</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>80</v>
+        <v>31</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
